--- a/src/Tests/Tests.EmptyList.verified.xlsx
+++ b/src/Tests/Tests.EmptyList.verified.xlsx
@@ -8,7 +8,9 @@
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -396,14 +398,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.996339" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.424911" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.139196" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.139196" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.710625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="8.282054" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="6.424911" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.996339" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.567768" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
@@ -433,6 +435,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:H1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/Tests/Tests.EmptyList.verified.xlsx
+++ b/src/Tests/Tests.EmptyList.verified.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -31,9 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Annual Salary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Department</x:t>
   </x:si>
   <x:si>
     <x:t>Is Active</x:t>
@@ -390,7 +387,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H1"/>
+  <x:dimension ref="A1:G1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -403,12 +400,11 @@
     <x:col min="3" max="3" width="15.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.996339" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="8.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="8.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -430,12 +426,9 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:H1"/>
+  <x:autoFilter ref="A1:G1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
